--- a/01計画/反復計画書_02_SHOCK.xlsx
+++ b/01計画/反復計画書_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DCC9CE8-6D91-4D72-B1ED-ED778CC9A41C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D12BCD-E0D6-4620-8A62-B0F12CEDBBB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -307,16 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3日間</t>
-    <rPh sb="1" eb="2">
-      <t>ヒ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
       <t>ゼンタイ</t>
@@ -395,6 +385,16 @@
     </rPh>
     <rPh sb="14" eb="16">
       <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2.5日間</t>
+    <rPh sb="3" eb="4">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>アイダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -893,6 +893,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -901,12 +907,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,8 +1262,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
-        <v>19</v>
+      <c r="A1" s="40" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1271,21 +1271,21 @@
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="4"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="4"/>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1429,8 +1429,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1443,36 +1443,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="40" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>20</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
       <c r="E1" s="3"/>
     </row>
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="39"/>
+      <c r="A2" s="41"/>
       <c r="B2" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
       <c r="E2" s="6"/>
     </row>
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="39"/>
+      <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
     </row>
     <row r="4" spans="1:5" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="40"/>
+      <c r="A4" s="42"/>
       <c r="B4" s="7"/>
       <c r="C4" s="8"/>
       <c r="D4" s="8"/>
@@ -1535,7 +1535,7 @@
         <v>17</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>18</v>
+        <v>26</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1544,13 +1544,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>23</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>24</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1575,8 +1575,8 @@
       </c>
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
-      <c r="E11" s="41" t="s">
-        <v>26</v>
+      <c r="E11" s="38" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1586,7 +1586,7 @@
       <c r="B12" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="42">
+      <c r="C12" s="39">
         <v>43984</v>
       </c>
       <c r="D12" s="35"/>
@@ -1641,15 +1641,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1819,6 +1810,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement/>
@@ -1826,14 +1826,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1851,6 +1843,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>

--- a/01計画/反復計画書_02_SHOCK.xlsx
+++ b/01計画/反復計画書_02_SHOCK.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8D12BCD-E0D6-4620-8A62-B0F12CEDBBB4}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E530F3D2-A7C6-4129-AEFA-99AE96CA2B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1430,7 +1430,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/01計画/反復計画書_02_SHOCK.xlsx
+++ b/01計画/反復計画書_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E530F3D2-A7C6-4129-AEFA-99AE96CA2B05}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE53EAA-4F0D-4D72-8019-ABF95E8809C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="0" windowWidth="15195" windowHeight="9825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="29">
   <si>
     <t>反復１</t>
     <rPh sb="0" eb="2">
@@ -297,16 +297,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>3日間</t>
-    <rPh sb="1" eb="2">
-      <t>ニチ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>アイダ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>プロジェクト全体のゴール</t>
     <rPh sb="6" eb="8">
       <t>ゼンタイ</t>
@@ -389,12 +379,45 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>2.5日間</t>
+    <t>6日間</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2日間</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1.5日間</t>
     <rPh sb="3" eb="4">
       <t>ヒ</t>
     </rPh>
     <rPh sb="4" eb="5">
       <t>アイダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分析・設計に時間がかかってしまった。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンセキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セッケイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジカン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1248,7 +1271,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A4" workbookViewId="0">
       <selection sqref="A1:A4"/>
     </sheetView>
   </sheetViews>
@@ -1263,7 +1286,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="2"/>
@@ -1429,25 +1452,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="13.25" customWidth="1"/>
     <col min="2" max="2" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.75" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="3" max="3" width="31.625" customWidth="1"/>
+    <col min="4" max="4" width="34.75" customWidth="1"/>
     <col min="5" max="5" width="25.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="40" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1456,7 +1479,7 @@
     <row r="2" spans="1:5" ht="21" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="41"/>
       <c r="B2" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1465,7 +1488,7 @@
     <row r="3" spans="1:5" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A3" s="41"/>
       <c r="B3" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C3" s="5"/>
       <c r="D3" s="5"/>
@@ -1502,10 +1525,10 @@
         <v>43984</v>
       </c>
       <c r="D6" s="32">
-        <v>43990</v>
+        <v>43992</v>
       </c>
       <c r="E6" s="33">
-        <v>43993</v>
+        <v>43994</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.15">
@@ -1517,7 +1540,7 @@
         <v>43987</v>
       </c>
       <c r="D7" s="32">
-        <v>43992</v>
+        <v>43993</v>
       </c>
       <c r="E7" s="33">
         <v>43997</v>
@@ -1532,10 +1555,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E8" s="30" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1544,13 +1567,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D9" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="25" t="s">
+      <c r="E9" s="26" t="s">
         <v>23</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1576,7 +1599,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="38" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1597,7 +1620,9 @@
       <c r="B13" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="10"/>
+      <c r="C13" s="32">
+        <v>43991</v>
+      </c>
       <c r="D13" s="10"/>
       <c r="E13" s="15"/>
     </row>
@@ -1606,16 +1631,20 @@
       <c r="B14" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="10"/>
+      <c r="C14" s="10" t="s">
+        <v>25</v>
+      </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
     </row>
-    <row r="15" spans="1:5" ht="42.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:5" ht="201" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="4"/>
       <c r="B15" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="10"/>
+      <c r="C15" s="27" t="s">
+        <v>13</v>
+      </c>
       <c r="D15" s="10"/>
       <c r="E15" s="15"/>
     </row>
@@ -1624,7 +1653,9 @@
       <c r="B16" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="16"/>
+      <c r="C16" s="16" t="s">
+        <v>28</v>
+      </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
     </row>
@@ -1641,6 +1672,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1810,22 +1856,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1841,21 +1889,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/01計画/反復計画書_02_SHOCK.xlsx
+++ b/01計画/反復計画書_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CE53EAA-4F0D-4D72-8019-ABF95E8809C9}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED0691-A1DE-4D52-B69C-1F06CA3140A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="0" windowWidth="15195" windowHeight="9825" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15620" yWindow="700" windowWidth="15200" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -339,22 +339,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>予約画面をHTMLを用いて表示できる。</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>モチ</t>
-    </rPh>
-    <rPh sb="13" eb="15">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>データベースで情報を管理できる。</t>
     <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
@@ -418,6 +402,16 @@
     </rPh>
     <rPh sb="6" eb="8">
       <t>ジカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SwingでGUI化を行う。</t>
+    <rPh sb="9" eb="10">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1452,8 +1446,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1555,10 +1549,10 @@
         <v>16</v>
       </c>
       <c r="D8" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="30" t="s">
         <v>26</v>
-      </c>
-      <c r="E8" s="30" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="76.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1570,10 +1564,10 @@
         <v>21</v>
       </c>
       <c r="D9" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="26" t="s">
         <v>22</v>
-      </c>
-      <c r="E9" s="26" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="139.5" customHeight="1" x14ac:dyDescent="0.15">
@@ -1599,7 +1593,7 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
       <c r="E11" s="38" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.15">
@@ -1632,7 +1626,7 @@
         <v>3</v>
       </c>
       <c r="C14" s="10" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D14" s="10"/>
       <c r="E14" s="15"/>
@@ -1654,7 +1648,7 @@
         <v>10</v>
       </c>
       <c r="C16" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" s="16"/>
       <c r="E16" s="17"/>
@@ -1678,15 +1672,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="8" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="2a556f6f1c373661d5b840766e21bd71">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="922e6d2db1fa74b296b39bb733b75624" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -1856,6 +1841,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D5882401-A3FB-4773-8104-AF6E28171954}">
   <ds:schemaRefs>
@@ -1866,14 +1860,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2404E3D6-C5E8-4A32-932E-E10A1ED3B4C0}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1889,4 +1875,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{066BBAD6-3BE0-4C08-803C-CD6945FB183A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/01計画/反復計画書_02_SHOCK.xlsx
+++ b/01計画/反復計画書_02_SHOCK.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8ED0691-A1DE-4D52-B69C-1F06CA3140A5}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B34760ED-6AC9-4BF2-9917-0F086D2F2C65}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15620" yWindow="700" windowWidth="15200" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18320" yWindow="180" windowWidth="15200" windowHeight="9800" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テンプレート" sheetId="4" r:id="rId1"/>
@@ -406,7 +406,8 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SwingでGUI化を行う。</t>
+    <t xml:space="preserve">swingでGUI化を行う。
+</t>
     <rPh sb="9" eb="10">
       <t>カ</t>
     </rPh>
@@ -1446,8 +1447,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
